--- a/modules/Inputs_Information/SraRunTable_ PRJNA865018_selected.xlsx
+++ b/modules/Inputs_Information/SraRunTable_ PRJNA865018_selected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark_Cyril\PIPELINE\HeatSeq\modules\Inputs_Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B2A99B1D-C8CC-4BBC-AB25-92FB0C1988CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9747E90-2C41-4DFC-AA50-45EB6C85E6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9062055-3582-4750-9DFF-75F4AB57780E}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="159">
   <si>
     <t>Run</t>
   </si>
@@ -472,6 +472,33 @@
   </si>
   <si>
     <t>D6-1-1</t>
+  </si>
+  <si>
+    <t>buds_1</t>
+  </si>
+  <si>
+    <t>buds_2</t>
+  </si>
+  <si>
+    <t>buds_3</t>
+  </si>
+  <si>
+    <t>flowers_1</t>
+  </si>
+  <si>
+    <t>flowers_2</t>
+  </si>
+  <si>
+    <t>flowers_3</t>
+  </si>
+  <si>
+    <t>fruits_1</t>
+  </si>
+  <si>
+    <t>fruits_2</t>
+  </si>
+  <si>
+    <t>fruits_3</t>
   </si>
 </sst>
 </file>
@@ -1333,198 +1360,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78266D7-6871-4CAB-BC82-B9E9036375FF}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
-    <sortCondition ref="B2:B10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
+    <sortCondition ref="C2:C10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
